--- a/data/trans_bre/P16A01-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,31</t>
+          <t>-1,68; 6,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 2,15</t>
+          <t>-7,61; 1,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 2,52</t>
+          <t>-5,54; 2,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 4,29</t>
+          <t>-1,57; 4,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 128,91</t>
+          <t>-23,39; 123,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,25; 24,81</t>
+          <t>-54,51; 24,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-53,37; 39,91</t>
+          <t>-52,6; 42,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,39; 101,02</t>
+          <t>-21,34; 110,71</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 4,71</t>
+          <t>-3,8; 4,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 6,78</t>
+          <t>-2,22; 6,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,73</t>
+          <t>-2,9; 5,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 1,58</t>
+          <t>-5,21; 1,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,36; 99,62</t>
+          <t>-41,81; 84,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,98; 134,56</t>
+          <t>-23,94; 140,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,51; 99,6</t>
+          <t>-31,72; 95,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 24,82</t>
+          <t>-48,83; 26,06</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 8,63</t>
+          <t>-2,32; 8,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 3,31</t>
+          <t>-5,0; 3,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 7,15</t>
+          <t>-3,6; 7,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 11,47</t>
+          <t>-0,54; 11,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 133,71</t>
+          <t>-27,49; 129,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-49,9; 47,78</t>
+          <t>-49,76; 45,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-43,94; 98,01</t>
+          <t>-38,83; 101,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 471,23</t>
+          <t>-9,91; 378,67</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 2,35</t>
+          <t>-2,44; 2,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,31</t>
+          <t>-2,23; 3,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,34</t>
+          <t>-2,75; 2,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 0,35</t>
+          <t>-5,68; 0,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,3; 38,84</t>
+          <t>-30,28; 40,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 37,41</t>
+          <t>-20,08; 41,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,97; 34,76</t>
+          <t>-29,28; 30,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-64,66; 3,65</t>
+          <t>-66,11; 8,61</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 1,75</t>
+          <t>-5,01; 1,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 0,94</t>
+          <t>-4,9; 1,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,23</t>
+          <t>-1,62; 4,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,76</t>
+          <t>-1,45; 5,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 34,59</t>
+          <t>-55,45; 29,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-45,73; 12,5</t>
+          <t>-46,16; 17,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 78,18</t>
+          <t>-20,07; 78,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 98,36</t>
+          <t>-17,51; 106,97</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,99</t>
+          <t>-3,55; 1,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 1,14</t>
+          <t>-6,57; 1,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 5,86</t>
+          <t>-1,18; 5,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,34</t>
+          <t>1,23; 7,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,83; 54,0</t>
+          <t>-43,83; 56,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,73; 16,16</t>
+          <t>-49,93; 20,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 130,66</t>
+          <t>-13,62; 137,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 1135,23</t>
+          <t>-3,85; 1255,46</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,62</t>
+          <t>-1,71; 0,75</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,42</t>
+          <t>-2,67; 0,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 2,02</t>
+          <t>-0,59; 2,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,28</t>
+          <t>-1,21; 2,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 9,69</t>
+          <t>-21,95; 12,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 4,88</t>
+          <t>-26,1; 3,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 28,5</t>
+          <t>-7,1; 29,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 42,52</t>
+          <t>-15,67; 42,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A01-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16A01-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
